--- a/CiscoMPP/TAP_CiscoMPP_TraceCapture_TestPlan/TAP_CiscoMPP_TraceCapture_TestPlan.xlsx
+++ b/CiscoMPP/TAP_CiscoMPP_TraceCapture_TestPlan/TAP_CiscoMPP_TraceCapture_TestPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandem\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyathakula\Documents\GitHub\tekVizion-360AP-Golden-Test-Suite\CiscoMPP\TAP_CiscoMPP_TraceCapture_TestPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EE415B-6680-4466-8280-97D97456D523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F424DB-197E-4001-94A7-4CC3F376BFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-912" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1010,6 +1010,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,9 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,28 +1421,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="28.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" style="9"/>
-    <col min="2" max="2" width="35.90625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="46.453125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="45.90625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="47.90625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="28.36328125" style="1"/>
+    <col min="1" max="1" width="28.33203125" style="9"/>
+    <col min="2" max="2" width="35.88671875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="28.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1459,8 +1459,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="175.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1476,8 +1476,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="175.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="187.2" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
@@ -1491,8 +1491,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="256.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
       <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
@@ -1506,8 +1506,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="297" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:5" ht="316.8" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1523,8 +1523,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="310.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:5" ht="331.2" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
       <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="243" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="259.2" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -1555,8 +1555,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="324" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:5" ht="345.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1572,8 +1572,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="297" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:5" ht="316.8" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
       <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
@@ -1587,8 +1587,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1604,8 +1604,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="162" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:5" ht="187.2" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
       <c r="B12" s="11" t="s">
         <v>46</v>
       </c>
@@ -1619,8 +1619,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="148.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+    <row r="13" spans="1:5" ht="172.8" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
       <c r="B13" s="11" t="s">
         <v>50</v>
       </c>
@@ -1634,8 +1634,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="162" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:5" ht="172.8" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
       <c r="B14" s="11" t="s">
         <v>54</v>
       </c>
@@ -1649,8 +1649,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="148.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:5" ht="158.4" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
       <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
@@ -1664,8 +1664,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="216" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:5" ht="230.4" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
       <c r="B16" s="11" t="s">
         <v>62</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="216" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="230.4" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>66</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="378" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
@@ -1713,8 +1713,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="108" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:5" ht="115.2" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1730,8 +1730,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="162" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
       <c r="B20" s="11" t="s">
         <v>81</v>
       </c>
@@ -1745,8 +1745,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="7" customFormat="1" ht="175.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:5" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
       <c r="B21" s="11" t="s">
         <v>85</v>
       </c>
@@ -1760,8 +1760,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:5" ht="100.8" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
       <c r="B22" s="11" t="s">
         <v>89</v>
       </c>
@@ -1775,8 +1775,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="108" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:5" ht="115.2" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
       <c r="B23" s="11" t="s">
         <v>93</v>
       </c>
@@ -1790,8 +1790,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="229.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:5" ht="259.2" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1807,8 +1807,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="378" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
       <c r="B25" s="11" t="s">
         <v>102</v>
       </c>
@@ -1822,8 +1822,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="202.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:5" ht="230.4" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
       <c r="B26" s="11" t="s">
         <v>106</v>
       </c>
@@ -1837,8 +1837,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="378" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:5" ht="403.2" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
       <c r="B27" s="11" t="s">
         <v>110</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
     </row>
   </sheetData>
@@ -2080,15 +2080,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4467630a-12db-40c6-8a45-99f0b9a1f438" xsi:nil="true"/>
@@ -2097,6 +2088,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2119,14 +2119,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4251E72C-A8C7-44FE-836E-458F7EE9FD38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE5DBFF-1734-46DC-9440-BBA9D323060F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2135,4 +2127,12 @@
     <ds:schemaRef ds:uri="f9ee364c-220e-4615-987a-3b7223de6e9f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4251E72C-A8C7-44FE-836E-458F7EE9FD38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>